--- a/data/course/Prereqs.xlsx
+++ b/data/course/Prereqs.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-259</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>73-160</t>
+          <t>73-230</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>73-160</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>33-121</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>33-121</t>
+          <t>21-120</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>15-210</t>
+          <t>76-101</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>15-210</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>76-101</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>15-210</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>15-210</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-254</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-259</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>73-240</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>73-240</t>
+          <t>73-230</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-325</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>36-325</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>21-325</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>15-359</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>15-359</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-219</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>15-259</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>15-359</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>15-359</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>36-247</t>
+          <t>36-219</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>15-259</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-247</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>21-325</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-220</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>09-214</t>
+          <t>09-345</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>09-347</t>
+          <t>09-344</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>09-345</t>
+          <t>09-347</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>09-344</t>
+          <t>09-214</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-219</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-220</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>09-219</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>09-219</t>
+          <t>09-217</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>09-217</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-259</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>21-325</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>21-242</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>21-242</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -14843,7 +14843,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15023,7 +15023,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-220</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -16003,7 +16003,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>85-251</t>
+          <t>36-309</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>85-251</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-101</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -17123,7 +17123,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -17363,7 +17363,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-233</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>03-233</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -17483,7 +17483,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -18063,7 +18063,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-320</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-240</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>70-391</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>70-208</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -18923,7 +18923,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -18983,7 +18983,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-320</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-240</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -19323,7 +19323,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>73-160</t>
+          <t>73-230</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -19343,7 +19343,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>73-160</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -19383,7 +19383,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>15-259</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -19423,7 +19423,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -19443,7 +19443,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -19783,7 +19783,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -19843,7 +19843,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-220</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>21-257</t>
+          <t>70-257</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -19883,7 +19883,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>21-292</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -19903,7 +19903,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>70-257</t>
+          <t>21-292</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -20143,7 +20143,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -20403,7 +20403,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -20423,7 +20423,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -20443,7 +20443,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -20463,7 +20463,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -20703,7 +20703,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -20723,7 +20723,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -20763,7 +20763,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>02-201</t>
+          <t>15-110</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -20863,7 +20863,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>15-110</t>
+          <t>02-201</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -20923,7 +20923,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -20983,7 +20983,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -21003,7 +21003,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -21043,7 +21043,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -21463,7 +21463,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -21503,7 +21503,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -21603,7 +21603,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -21663,7 +21663,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -21763,7 +21763,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -21783,7 +21783,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -21803,7 +21803,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -21983,7 +21983,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -22003,7 +22003,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>76-373</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>76-373</t>
+          <t>76-101</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -22123,7 +22123,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>76-373</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-373</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -22223,7 +22223,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -22643,7 +22643,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -22663,7 +22663,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -22683,7 +22683,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -23003,7 +23003,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -23123,7 +23123,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -23143,7 +23143,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -23163,7 +23163,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -23283,7 +23283,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -23343,7 +23343,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -23463,7 +23463,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -23483,7 +23483,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -23503,7 +23503,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -23683,7 +23683,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -23743,7 +23743,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -23923,7 +23923,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -23983,7 +23983,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -24083,7 +24083,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -24163,7 +24163,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -24183,7 +24183,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -24343,7 +24343,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -24523,7 +24523,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -24603,7 +24603,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
@@ -24623,7 +24623,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>70-421</t>
+          <t>70-425</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -24703,7 +24703,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>70-425</t>
+          <t>70-415</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -24723,7 +24723,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>15-390</t>
+          <t>70-421</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -24743,7 +24743,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>70-414</t>
+          <t>15-390</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>70-420</t>
+          <t>70-414</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
@@ -24783,7 +24783,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>70-415</t>
+          <t>70-420</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -24883,7 +24883,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
@@ -24903,7 +24903,7 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -25143,7 +25143,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -25163,7 +25163,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
@@ -25183,7 +25183,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
@@ -25203,7 +25203,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -25443,7 +25443,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
@@ -25463,7 +25463,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
@@ -25743,7 +25743,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -25763,7 +25763,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -25783,7 +25783,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>79-361</t>
+          <t>79-210</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -25923,7 +25923,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>79-210</t>
+          <t>79-209</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -25943,7 +25943,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>79-216</t>
+          <t>79-307</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>79-294</t>
+          <t>79-361</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>79-285</t>
+          <t>79-279</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>79-284</t>
+          <t>79-378</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
@@ -26023,7 +26023,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>79-209</t>
+          <t>79-294</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>79-307</t>
+          <t>79-285</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -26063,7 +26063,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>79-279</t>
+          <t>79-284</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>79-378</t>
+          <t>79-216</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -26123,7 +26123,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -26263,7 +26263,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -26303,7 +26303,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>73-103</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>73-103</t>
+          <t>73-102</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -26463,7 +26463,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>73-100</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>21-259</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -26503,7 +26503,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>73-103</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>73-103</t>
+          <t>73-102</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -26603,7 +26603,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -26643,7 +26643,7 @@
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -26743,7 +26743,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>21-240</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -26763,7 +26763,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>21-240</t>
+          <t>15-122</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
@@ -26823,7 +26823,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>15-122</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -26923,7 +26923,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
@@ -26943,7 +26943,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -27043,7 +27043,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -27063,7 +27063,7 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
@@ -27363,7 +27363,7 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
@@ -27383,7 +27383,7 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
@@ -27483,7 +27483,7 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>09-223</t>
+          <t>09-222</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>09-208</t>
+          <t>QC-211</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
@@ -27523,7 +27523,7 @@
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>09-222</t>
+          <t>09-223</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
@@ -27543,7 +27543,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>QC-211</t>
+          <t>09-208</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
@@ -27603,7 +27603,7 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
@@ -27643,7 +27643,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -27883,7 +27883,7 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
@@ -28023,7 +28023,7 @@
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>36-309</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
@@ -28043,7 +28043,7 @@
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>85-211</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
@@ -28063,7 +28063,7 @@
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>85-213</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -28083,7 +28083,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>85-213</t>
+          <t>36-309</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -28103,7 +28103,7 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-309</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>85-309</t>
+          <t>85-211</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
@@ -28323,7 +28323,7 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -28363,7 +28363,7 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -28383,7 +28383,7 @@
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
@@ -28443,7 +28443,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
@@ -28483,7 +28483,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
@@ -28543,7 +28543,7 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-309</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
@@ -28563,7 +28563,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>70-208</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">

--- a/data/course/Prereqs.xlsx
+++ b/data/course/Prereqs.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>33-121</t>
+          <t>21-120</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>33-121</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>33-111</t>
+          <t>21-120</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>33-111</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>15-210</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>15-210</t>
+          <t>76-101</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>76-101</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>15-210</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>15-210</t>
+          <t>15-251</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-259</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>73-240</t>
+          <t>73-230</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>73-240</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-325</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>36-325</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>21-325</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>15-359</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>15-359</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>21-325</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>15-359</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>15-359</t>
+          <t>15-259</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-219</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>21-325</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>36-247</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>15-259</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-220</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-247</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-219</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>09-345</t>
+          <t>09-344</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>09-344</t>
+          <t>09-347</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>09-347</t>
+          <t>09-214</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>09-214</t>
+          <t>09-345</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-220</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-218</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-219</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>09-106</t>
+          <t>09-107</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>09-107</t>
+          <t>09-106</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>09-219</t>
+          <t>09-217</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>09-217</t>
+          <t>09-219</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>21-111</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>21-111</t>
+          <t>21-112</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>73-100</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>73-102</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -14843,7 +14843,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-220</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -16003,7 +16003,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>85-309</t>
+          <t>85-241</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>85-241</t>
+          <t>85-309</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -16443,7 +16443,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>85-309</t>
+          <t>85-241</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>85-241</t>
+          <t>85-309</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-101</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -17363,7 +17363,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-120</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>03-120</t>
+          <t>03-151</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-233</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>03-233</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -18063,7 +18063,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -18203,7 +18203,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-240</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-320</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>70-208</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>70-391</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -18443,7 +18443,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>15-112</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -18503,7 +18503,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>15-112</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -18923,7 +18923,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -19223,7 +19223,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -19243,7 +19243,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-240</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-320</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -19383,7 +19383,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -19423,7 +19423,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>15-259</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -19443,7 +19443,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -19563,7 +19563,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>15-295</t>
+          <t>15-195</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>15-195</t>
+          <t>15-295</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -19783,7 +19783,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -19803,7 +19803,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>70-257</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -19883,7 +19883,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>21-257</t>
+          <t>21-292</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -19903,7 +19903,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>21-292</t>
+          <t>70-257</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -20403,7 +20403,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -20423,7 +20423,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -20703,7 +20703,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -20723,7 +20723,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>15-110</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>15-110</t>
+          <t>02-201</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -20863,7 +20863,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>02-201</t>
+          <t>15-112</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -20883,7 +20883,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>03-131</t>
+          <t>03-121</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-131</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -20983,7 +20983,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -21003,7 +21003,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -21243,7 +21243,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -21463,7 +21463,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -21503,7 +21503,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -21603,7 +21603,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -21763,7 +21763,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -21783,7 +21783,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -21983,7 +21983,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -22003,7 +22003,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -22063,7 +22063,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-373</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -22083,7 +22083,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>76-373</t>
+          <t>76-102</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -22123,7 +22123,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-373</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>76-373</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -22183,7 +22183,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-373</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -22203,7 +22203,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>76-373</t>
+          <t>76-108</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -22223,7 +22223,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-373</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -22243,7 +22243,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>76-373</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -22643,7 +22643,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -22663,7 +22663,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -22683,7 +22683,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -23123,7 +23123,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -23143,7 +23143,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -23283,7 +23283,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -23463,7 +23463,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -23483,7 +23483,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -23683,7 +23683,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -23923,7 +23923,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -24083,7 +24083,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -24523,7 +24523,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>70-425</t>
+          <t>70-420</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -24743,7 +24743,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>15-390</t>
+          <t>70-414</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>70-414</t>
+          <t>70-425</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
@@ -24783,7 +24783,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>70-420</t>
+          <t>15-390</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -25143,7 +25143,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -25163,7 +25163,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
@@ -25183,7 +25183,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
@@ -25203,7 +25203,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -25743,7 +25743,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -25763,7 +25763,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -25883,7 +25883,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>79-104</t>
+          <t>79-209</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>79-210</t>
+          <t>79-216</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -25923,7 +25923,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>79-209</t>
+          <t>79-285</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>79-361</t>
+          <t>79-279</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>79-279</t>
+          <t>79-104</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>79-378</t>
+          <t>79-294</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
@@ -26023,7 +26023,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>79-294</t>
+          <t>79-210</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>79-285</t>
+          <t>79-361</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -26063,7 +26063,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>79-284</t>
+          <t>79-378</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>79-216</t>
+          <t>79-284</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -26163,7 +26163,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -26263,7 +26263,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -26363,7 +26363,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>73-100</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -26383,7 +26383,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>73-103</t>
+          <t>73-102</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>73-103</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -26503,7 +26503,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>73-103</t>
+          <t>73-102</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>73-103</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -26603,7 +26603,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -26783,7 +26783,7 @@
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>21-122</t>
+          <t>21-241</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>21-122</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
@@ -26923,7 +26923,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
@@ -26943,7 +26943,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -27043,7 +27043,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-201</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-200</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
@@ -27443,7 +27443,7 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-232</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>QC-211</t>
+          <t>09-208</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
@@ -27523,7 +27523,7 @@
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>09-223</t>
+          <t>QC-211</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
@@ -27543,7 +27543,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>09-208</t>
+          <t>09-223</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
@@ -27603,7 +27603,7 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>36-226</t>
+          <t>36-212</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
@@ -27743,7 +27743,7 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>36-212</t>
+          <t>36-217</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
@@ -27763,7 +27763,7 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-226</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>02-201</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -27823,7 +27823,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>02-201</t>
+          <t>15-112</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-128</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>15-151</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -27883,7 +27883,7 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
@@ -28063,7 +28063,7 @@
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>85-213</t>
+          <t>36-309</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -28083,7 +28083,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>85-213</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -28103,7 +28103,7 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>85-309</t>
+          <t>85-211</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-309</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
@@ -28143,7 +28143,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>85-309</t>
+          <t>85-213</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
@@ -28163,7 +28163,7 @@
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>85-213</t>
+          <t>85-309</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -28323,7 +28323,7 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-107</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-106</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -28443,7 +28443,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-268</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-269</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
@@ -28483,7 +28483,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-256</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-309</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
@@ -28543,7 +28543,7 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>70-208</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
@@ -28563,7 +28563,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
